--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376779.5616164836</v>
+        <v>484916.0540423965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13311495.48212026</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20973683.82304848</v>
+        <v>21138955.5978373</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3688452.551843971</v>
+        <v>3585854.300449377</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>81.61928733384124</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>81.61928733384114</v>
       </c>
     </row>
     <row r="12">
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>89.71475821016367</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>81.61928733384129</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="U14" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="W14" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="X14" t="n">
-        <v>81.61928733384129</v>
+        <v>81.61928733384114</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>81.61928733384117</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="F15" t="n">
-        <v>89.71475821016384</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="G15" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>57.96571614961797</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>81.61928733384131</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="F18" t="n">
-        <v>92.66494928910231</v>
+        <v>89.71475821016362</v>
       </c>
       <c r="G18" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>67.27654854321858</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>92.66494928910218</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>92.66494928910218</v>
+      </c>
+      <c r="V20" t="n">
+        <v>92.66494928910218</v>
+      </c>
+      <c r="W20" t="n">
         <v>81.61928733384119</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>92.66494928910228</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>92.66494928910228</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>67.27654854321847</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="G21" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R21" t="n">
-        <v>47.77198705867357</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>45.52347904402988</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="U23" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="V23" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="W23" t="n">
-        <v>69.17705022825332</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.475385653871041</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2441,31 +2441,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R24" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>7.067404259978003</v>
       </c>
       <c r="W24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2557,20 +2557,20 @@
         <v>98.8247775506934</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="D26" t="n">
-        <v>69.17705022825332</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>98.8247775506934</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.475385653871041</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="U27" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2794,61 +2794,61 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="D29" t="n">
-        <v>69.17705022825332</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="E29" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="G29" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,70 +2870,70 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>72.70212527602803</v>
+      </c>
+      <c r="G30" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C30" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>14.3427387906227</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="T30" t="n">
-        <v>87.04486406665072</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.17705022825332</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>98.8247775506934</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="V32" t="n">
-        <v>98.8247775506934</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>98.8247775506934</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="V33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="W33" t="n">
-        <v>72.70212527602803</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.61928733384123</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="S35" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>56.70400066026079</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="T36" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="U36" t="n">
-        <v>67.27654854321855</v>
+        <v>89.71475821016375</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="E38" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>81.61928733384131</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>81.61928733384114</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>47.77198705867345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="V39" t="n">
-        <v>92.66494928910231</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>67.27654854321862</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.61928733384129</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="X41" t="n">
-        <v>92.66494928910225</v>
+        <v>81.61928733384119</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>75.37201941954115</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3863,19 +3863,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.34273879062268</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R42" t="n">
-        <v>84.5694784127797</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S42" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>68.55494741742537</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>81.61928733384117</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>81.61928733384133</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>81.61928733384117</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="V45" t="n">
-        <v>81.61928733384129</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="W45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>92.66494928910218</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.4578794006469</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="C11" t="n">
-        <v>183.4578794006469</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="D11" t="n">
-        <v>183.4578794006469</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="E11" t="n">
-        <v>183.4578794006469</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="F11" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="G11" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H11" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I11" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J11" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128112</v>
       </c>
       <c r="K11" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821446</v>
       </c>
       <c r="L11" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940364</v>
       </c>
       <c r="M11" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N11" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018259</v>
       </c>
       <c r="O11" t="n">
-        <v>337.6943058037295</v>
+        <v>337.6943058037291</v>
       </c>
       <c r="P11" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R11" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S11" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T11" t="n">
-        <v>277.058838278528</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="U11" t="n">
-        <v>183.4578794006469</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="V11" t="n">
-        <v>183.4578794006469</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="W11" t="n">
-        <v>183.4578794006469</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="X11" t="n">
-        <v>183.4578794006469</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.4578794006469</v>
+        <v>7.413195943128174</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.413195943128183</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="C12" t="n">
-        <v>7.413195943128183</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="D12" t="n">
-        <v>7.413195943128183</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="E12" t="n">
-        <v>7.413195943128183</v>
+        <v>194.6151136988901</v>
       </c>
       <c r="F12" t="n">
-        <v>7.413195943128183</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G12" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H12" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I12" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J12" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="K12" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="L12" t="n">
-        <v>43.08143125983021</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M12" t="n">
-        <v>134.8197310560415</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5580308522527</v>
+        <v>265.2919751484355</v>
       </c>
       <c r="O12" t="n">
-        <v>317.2247932514008</v>
+        <v>355.9587375475836</v>
       </c>
       <c r="P12" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q12" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R12" t="n">
-        <v>370.6597971564091</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="S12" t="n">
-        <v>370.6597971564091</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="T12" t="n">
-        <v>370.6597971564091</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="U12" t="n">
-        <v>288.2160725767715</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="V12" t="n">
-        <v>194.6151136988904</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="W12" t="n">
-        <v>101.0141548210093</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="X12" t="n">
-        <v>7.413195943128183</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.413195943128183</v>
+        <v>285.2360815879443</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="C13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="D13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="E13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="F13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="G13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="K13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="L13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="M13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="N13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="O13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="P13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="R13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="S13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="T13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="U13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="V13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="W13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="X13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128174</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="C14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="D14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="E14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="F14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="G14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821441</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940375</v>
+        <v>75.16870670940364</v>
       </c>
       <c r="M14" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018259</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6943058037294</v>
+        <v>337.6943058037291</v>
       </c>
       <c r="P14" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R14" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S14" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T14" t="n">
-        <v>370.659797156409</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="U14" t="n">
-        <v>277.058838278528</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="V14" t="n">
-        <v>183.4578794006469</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="W14" t="n">
-        <v>89.85692052276583</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="X14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="C15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="D15" t="n">
-        <v>191.6351227100636</v>
+        <v>288.2160725767711</v>
       </c>
       <c r="E15" t="n">
-        <v>191.6351227100636</v>
+        <v>194.6151136988901</v>
       </c>
       <c r="F15" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="G15" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H15" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I15" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J15" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="K15" t="n">
-        <v>28.29609765201164</v>
+        <v>22.11425555195326</v>
       </c>
       <c r="L15" t="n">
-        <v>102.6982772648967</v>
+        <v>96.51643516483836</v>
       </c>
       <c r="M15" t="n">
-        <v>134.8197310560414</v>
+        <v>188.2547349610495</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5580308522527</v>
+        <v>279.9930347572607</v>
       </c>
       <c r="O15" t="n">
-        <v>317.2247932514007</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="P15" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q15" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R15" t="n">
-        <v>285.2360815879447</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="U15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="V15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="W15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="X15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Y15" t="n">
-        <v>191.6351227100636</v>
+        <v>370.6597971564087</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="C16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="D16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="E16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="F16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="G16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="H16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="I16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="J16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="K16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="L16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="M16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="N16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="O16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="P16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="R16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="S16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="T16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="U16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="V16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="W16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="X16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128174</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.85692052276589</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="C17" t="n">
-        <v>89.85692052276589</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="D17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="E17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J17" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821463</v>
+        <v>21.18357364821443</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940385</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M17" t="n">
-        <v>166.9070065056151</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6453063018264</v>
+        <v>258.645306301826</v>
       </c>
       <c r="O17" t="n">
-        <v>337.6943058037297</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6597971564092</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R17" t="n">
-        <v>370.6597971564092</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S17" t="n">
-        <v>277.0588382785281</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="T17" t="n">
-        <v>277.0588382785281</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="U17" t="n">
-        <v>183.457879400647</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="V17" t="n">
-        <v>89.85692052276589</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="W17" t="n">
-        <v>89.85692052276589</v>
+        <v>65.96442437708572</v>
       </c>
       <c r="X17" t="n">
-        <v>89.85692052276589</v>
+        <v>65.96442437708572</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.85692052276589</v>
+        <v>65.96442437708572</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="C18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="D18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="E18" t="n">
-        <v>194.6151136988904</v>
+        <v>98.03416383218234</v>
       </c>
       <c r="F18" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G18" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H18" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I18" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J18" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K18" t="n">
-        <v>28.29609765201167</v>
+        <v>22.11425555195331</v>
       </c>
       <c r="L18" t="n">
-        <v>43.0814312598303</v>
+        <v>96.5164351648384</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8197310560416</v>
+        <v>188.2547349610496</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522528</v>
+        <v>279.9930347572607</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514009</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="P18" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q18" t="n">
-        <v>356.1721822163863</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R18" t="n">
-        <v>288.2160725767716</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="S18" t="n">
-        <v>194.6151136988904</v>
+        <v>285.2360815879443</v>
       </c>
       <c r="T18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="U18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="V18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="W18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="X18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.6151136988904</v>
+        <v>191.6351227100633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="C19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="D19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="E19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="L19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="M19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="N19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="O19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="P19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="R19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="S19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="T19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="U19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="V19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="W19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="X19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128175</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.0141548210093</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C20" t="n">
-        <v>101.0141548210093</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D20" t="n">
-        <v>101.0141548210093</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E20" t="n">
-        <v>101.0141548210093</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F20" t="n">
-        <v>101.0141548210093</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G20" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H20" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I20" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J20" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940379</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M20" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6453063018263</v>
+        <v>258.645306301826</v>
       </c>
       <c r="O20" t="n">
-        <v>337.6943058037295</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R20" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S20" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T20" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="U20" t="n">
-        <v>277.058838278528</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="V20" t="n">
-        <v>277.058838278528</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="W20" t="n">
-        <v>277.058838278528</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X20" t="n">
-        <v>277.058838278528</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="C21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="D21" t="n">
-        <v>135.2033470181484</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="E21" t="n">
-        <v>135.2033470181484</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F21" t="n">
-        <v>135.2033470181484</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G21" t="n">
-        <v>41.60238814026729</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K21" t="n">
-        <v>28.29609765201167</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L21" t="n">
-        <v>102.6982772648968</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
-        <v>134.8197310560415</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5580308522527</v>
+        <v>286.174876857319</v>
       </c>
       <c r="O21" t="n">
-        <v>317.2247932514008</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="P21" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163858</v>
       </c>
       <c r="R21" t="n">
-        <v>322.4052647739106</v>
+        <v>356.1721822163858</v>
       </c>
       <c r="S21" t="n">
-        <v>228.8043058960295</v>
+        <v>356.1721822163858</v>
       </c>
       <c r="T21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="U21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="V21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="W21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="X21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
       <c r="Y21" t="n">
-        <v>228.8043058960295</v>
+        <v>262.5712233385048</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="C22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="D22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="E22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="L22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="M22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="N22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="O22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="P22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="R22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="S22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="T22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="U22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="V22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="W22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="X22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128175</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="C23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="E23" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F23" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G23" t="n">
         <v>7.905982204055472</v>
@@ -5992,49 +5992,49 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K23" t="n">
-        <v>21.67635990914184</v>
+        <v>21.67635990914182</v>
       </c>
       <c r="L23" t="n">
-        <v>75.66149297033108</v>
+        <v>75.661492970331</v>
       </c>
       <c r="M23" t="n">
-        <v>167.3997927665423</v>
+        <v>167.3997927665422</v>
       </c>
       <c r="N23" t="n">
-        <v>265.2363225417288</v>
+        <v>265.2363225417287</v>
       </c>
       <c r="O23" t="n">
-        <v>344.285322043632</v>
+        <v>344.2853220436318</v>
       </c>
       <c r="P23" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="Q23" t="n">
-        <v>377.2508133963116</v>
+        <v>353.3583172506313</v>
       </c>
       <c r="R23" t="n">
-        <v>377.2508133963116</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="S23" t="n">
-        <v>377.2508133963116</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="T23" t="n">
-        <v>277.4278057693485</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="U23" t="n">
-        <v>177.6047981423855</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V23" t="n">
-        <v>77.78179051542247</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="W23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.40637175342016</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="C24" t="n">
-        <v>10.40637175342016</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="D24" t="n">
-        <v>10.40637175342016</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="E24" t="n">
-        <v>10.40637175342016</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="F24" t="n">
-        <v>7.905982204055472</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="G24" t="n">
-        <v>7.905982204055472</v>
+        <v>174.0266878270286</v>
       </c>
       <c r="H24" t="n">
-        <v>7.905982204055472</v>
+        <v>74.20368020006559</v>
       </c>
       <c r="I24" t="n">
         <v>7.905982204055472</v>
@@ -6071,49 +6071,49 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K24" t="n">
-        <v>28.78888391293896</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L24" t="n">
-        <v>103.1910635258241</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M24" t="n">
         <v>201.0275933010105</v>
       </c>
       <c r="N24" t="n">
-        <v>251.1973438986172</v>
+        <v>298.864123076197</v>
       </c>
       <c r="O24" t="n">
-        <v>341.8641062977653</v>
+        <v>389.530885475345</v>
       </c>
       <c r="P24" t="n">
         <v>395.2991102027736</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="R24" t="n">
-        <v>309.8753946343093</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="S24" t="n">
-        <v>210.0523870073462</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="T24" t="n">
-        <v>210.0523870073462</v>
+        <v>280.9884876357876</v>
       </c>
       <c r="U24" t="n">
-        <v>210.0523870073462</v>
+        <v>280.9884876357876</v>
       </c>
       <c r="V24" t="n">
-        <v>210.0523870073462</v>
+        <v>273.8496954539917</v>
       </c>
       <c r="W24" t="n">
-        <v>110.2293793803832</v>
+        <v>273.8496954539917</v>
       </c>
       <c r="X24" t="n">
-        <v>110.2293793803832</v>
+        <v>273.8496954539917</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.40637175342016</v>
+        <v>273.8496954539917</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>177.6047981423855</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C26" t="n">
-        <v>77.78179051542247</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G26" t="n">
         <v>7.905982204055472</v>
@@ -6229,49 +6229,49 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K26" t="n">
-        <v>21.67635990914184</v>
+        <v>21.67635990914182</v>
       </c>
       <c r="L26" t="n">
-        <v>75.66149297033108</v>
+        <v>75.661492970331</v>
       </c>
       <c r="M26" t="n">
-        <v>167.3997927665423</v>
+        <v>167.3997927665422</v>
       </c>
       <c r="N26" t="n">
-        <v>265.2363225417288</v>
+        <v>265.2363225417287</v>
       </c>
       <c r="O26" t="n">
-        <v>344.285322043632</v>
+        <v>344.2853220436318</v>
       </c>
       <c r="P26" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="Q26" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R26" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="S26" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="T26" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="U26" t="n">
-        <v>377.2508133963116</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V26" t="n">
-        <v>377.2508133963116</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="W26" t="n">
-        <v>277.4278057693485</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X26" t="n">
-        <v>277.4278057693485</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y26" t="n">
-        <v>277.4278057693485</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="C27" t="n">
-        <v>207.5519974579815</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="D27" t="n">
-        <v>107.7289898310185</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="E27" t="n">
-        <v>7.905982204055472</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="F27" t="n">
-        <v>7.905982204055472</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="G27" t="n">
-        <v>7.905982204055472</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="H27" t="n">
-        <v>7.905982204055472</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="I27" t="n">
-        <v>7.905982204055472</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="J27" t="n">
         <v>7.905982204055472</v>
       </c>
       <c r="K27" t="n">
-        <v>28.78888391293896</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="L27" t="n">
-        <v>103.1910635258241</v>
+        <v>82.30816181694057</v>
       </c>
       <c r="M27" t="n">
-        <v>153.3608141234307</v>
+        <v>180.144691592127</v>
       </c>
       <c r="N27" t="n">
-        <v>251.1973438986172</v>
+        <v>277.9812213673135</v>
       </c>
       <c r="O27" t="n">
-        <v>341.8641062977653</v>
+        <v>368.6479837664615</v>
       </c>
       <c r="P27" t="n">
         <v>395.2991102027736</v>
@@ -6329,28 +6329,28 @@
         <v>395.2991102027736</v>
       </c>
       <c r="R27" t="n">
-        <v>395.2991102027736</v>
+        <v>309.8753946343093</v>
       </c>
       <c r="S27" t="n">
-        <v>395.2991102027736</v>
+        <v>309.8753946343093</v>
       </c>
       <c r="T27" t="n">
-        <v>395.2991102027736</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="U27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="V27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="W27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="X27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="Y27" t="n">
-        <v>307.3750050849446</v>
+        <v>210.0523870073462</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="C29" t="n">
-        <v>377.2508133963116</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D29" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E29" t="n">
-        <v>207.5519974579815</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F29" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G29" t="n">
         <v>7.905982204055472</v>
@@ -6466,49 +6466,49 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K29" t="n">
-        <v>21.67635990914184</v>
+        <v>21.67635990914182</v>
       </c>
       <c r="L29" t="n">
-        <v>75.66149297033108</v>
+        <v>75.661492970331</v>
       </c>
       <c r="M29" t="n">
-        <v>167.3997927665423</v>
+        <v>167.3997927665422</v>
       </c>
       <c r="N29" t="n">
-        <v>265.2363225417288</v>
+        <v>265.2363225417287</v>
       </c>
       <c r="O29" t="n">
-        <v>344.285322043632</v>
+        <v>344.2853220436318</v>
       </c>
       <c r="P29" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="Q29" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R29" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="S29" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="T29" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="U29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="V29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="W29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="X29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.2508133963116</v>
+        <v>277.4278057693484</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>181.1654800088246</v>
+      </c>
+      <c r="C30" t="n">
+        <v>181.1654800088246</v>
+      </c>
+      <c r="D30" t="n">
+        <v>181.1654800088246</v>
+      </c>
+      <c r="E30" t="n">
+        <v>181.1654800088246</v>
+      </c>
+      <c r="F30" t="n">
         <v>107.7289898310185</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.905982204055472</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7.905982204055472</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.905982204055472</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.905982204055472</v>
       </c>
       <c r="G30" t="n">
         <v>7.905982204055472</v>
@@ -6545,10 +6545,10 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K30" t="n">
-        <v>28.78888391293896</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L30" t="n">
-        <v>103.1910635258241</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M30" t="n">
         <v>201.0275933010105</v>
@@ -6557,37 +6557,37 @@
         <v>298.864123076197</v>
       </c>
       <c r="O30" t="n">
-        <v>341.8641062977653</v>
+        <v>389.530885475345</v>
       </c>
       <c r="P30" t="n">
         <v>395.2991102027736</v>
       </c>
       <c r="Q30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="R30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="S30" t="n">
-        <v>295.4761025758106</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="T30" t="n">
-        <v>207.5519974579815</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="U30" t="n">
-        <v>207.5519974579815</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="V30" t="n">
-        <v>207.5519974579815</v>
+        <v>280.9884876357876</v>
       </c>
       <c r="W30" t="n">
-        <v>207.5519974579815</v>
+        <v>181.1654800088246</v>
       </c>
       <c r="X30" t="n">
-        <v>207.5519974579815</v>
+        <v>181.1654800088246</v>
       </c>
       <c r="Y30" t="n">
-        <v>207.5519974579815</v>
+        <v>181.1654800088246</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G32" t="n">
         <v>7.905982204055472</v>
@@ -6703,37 +6703,37 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K32" t="n">
-        <v>21.67635990914184</v>
+        <v>21.67635990914182</v>
       </c>
       <c r="L32" t="n">
-        <v>75.66149297033108</v>
+        <v>75.661492970331</v>
       </c>
       <c r="M32" t="n">
-        <v>167.3997927665423</v>
+        <v>167.3997927665422</v>
       </c>
       <c r="N32" t="n">
-        <v>265.2363225417288</v>
+        <v>265.2363225417287</v>
       </c>
       <c r="O32" t="n">
-        <v>344.285322043632</v>
+        <v>344.2853220436318</v>
       </c>
       <c r="P32" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="Q32" t="n">
-        <v>377.2508133963116</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R32" t="n">
-        <v>307.3750050849446</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="S32" t="n">
-        <v>207.5519974579815</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="T32" t="n">
-        <v>207.5519974579815</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="U32" t="n">
-        <v>207.5519974579815</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="V32" t="n">
         <v>107.7289898310185</v>
@@ -6745,7 +6745,7 @@
         <v>107.7289898310185</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="C33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="E33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="F33" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G33" t="n">
         <v>7.905982204055472</v>
@@ -6782,13 +6782,13 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K33" t="n">
-        <v>7.905982204055472</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L33" t="n">
-        <v>55.52428434824425</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M33" t="n">
-        <v>153.3608141234307</v>
+        <v>201.0275933010105</v>
       </c>
       <c r="N33" t="n">
         <v>251.1973438986172</v>
@@ -6800,31 +6800,31 @@
         <v>395.2991102027736</v>
       </c>
       <c r="Q33" t="n">
-        <v>380.8114952627507</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="R33" t="n">
-        <v>380.8114952627507</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="S33" t="n">
-        <v>380.8114952627507</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="T33" t="n">
-        <v>380.8114952627507</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="U33" t="n">
-        <v>280.9884876357876</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V33" t="n">
-        <v>181.1654800088246</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W33" t="n">
-        <v>107.7289898310185</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X33" t="n">
-        <v>107.7289898310185</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="34">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>194.6151136988904</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="C35" t="n">
-        <v>194.6151136988904</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="D35" t="n">
-        <v>194.6151136988904</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="E35" t="n">
-        <v>194.6151136988904</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="F35" t="n">
-        <v>101.0141548210093</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="G35" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="H35" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="I35" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="J35" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K35" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L35" t="n">
-        <v>75.16870670940379</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M35" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N35" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O35" t="n">
-        <v>337.6943058037295</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P35" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q35" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R35" t="n">
-        <v>288.2160725767715</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="S35" t="n">
-        <v>194.6151136988904</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T35" t="n">
-        <v>194.6151136988904</v>
+        <v>219.78206993483</v>
       </c>
       <c r="U35" t="n">
-        <v>194.6151136988904</v>
+        <v>219.78206993483</v>
       </c>
       <c r="V35" t="n">
-        <v>194.6151136988904</v>
+        <v>126.181111056949</v>
       </c>
       <c r="W35" t="n">
-        <v>194.6151136988904</v>
+        <v>126.181111056949</v>
       </c>
       <c r="X35" t="n">
-        <v>194.6151136988904</v>
+        <v>126.181111056949</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.6151136988904</v>
+        <v>32.58015217906794</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C36" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J36" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K36" t="n">
-        <v>28.29609765201167</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L36" t="n">
-        <v>102.6982772648968</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M36" t="n">
-        <v>194.436577061108</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5580308522527</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O36" t="n">
-        <v>317.2247932514008</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P36" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q36" t="n">
-        <v>356.1721822163862</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R36" t="n">
-        <v>356.1721822163862</v>
+        <v>285.2360815879446</v>
       </c>
       <c r="S36" t="n">
-        <v>356.1721822163862</v>
+        <v>191.6351227100635</v>
       </c>
       <c r="T36" t="n">
-        <v>262.5712233385051</v>
+        <v>98.03416383218247</v>
       </c>
       <c r="U36" t="n">
-        <v>194.6151136988904</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="V36" t="n">
-        <v>194.6151136988904</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W36" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X36" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="M37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="N37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="O37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="P37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="R37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="S37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="T37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="U37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="V37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.413195943128183</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>277.0588382785281</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C38" t="n">
-        <v>277.0588382785281</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="D38" t="n">
-        <v>277.0588382785281</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="E38" t="n">
-        <v>183.457879400647</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="F38" t="n">
-        <v>89.85692052276589</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="G38" t="n">
-        <v>7.413195943128185</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="H38" t="n">
-        <v>7.413195943128185</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="I38" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J38" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K38" t="n">
-        <v>21.1835736482146</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L38" t="n">
-        <v>75.16870670940384</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M38" t="n">
-        <v>166.9070065056151</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N38" t="n">
-        <v>258.6453063018264</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O38" t="n">
-        <v>337.6943058037297</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V38" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W38" t="n">
-        <v>370.6597971564092</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="X38" t="n">
-        <v>370.6597971564092</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y38" t="n">
-        <v>277.0588382785281</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.413195943128185</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C39" t="n">
-        <v>7.413195943128185</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D39" t="n">
-        <v>7.413195943128185</v>
+        <v>135.2033470181483</v>
       </c>
       <c r="E39" t="n">
-        <v>7.413195943128185</v>
+        <v>135.2033470181483</v>
       </c>
       <c r="F39" t="n">
-        <v>7.413195943128185</v>
+        <v>135.2033470181483</v>
       </c>
       <c r="G39" t="n">
-        <v>7.413195943128185</v>
+        <v>135.2033470181483</v>
       </c>
       <c r="H39" t="n">
-        <v>7.413195943128185</v>
+        <v>41.6023881402673</v>
       </c>
       <c r="I39" t="n">
-        <v>7.413195943128185</v>
+        <v>41.6023881402673</v>
       </c>
       <c r="J39" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K39" t="n">
-        <v>28.29609765201167</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L39" t="n">
-        <v>102.6982772648968</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M39" t="n">
-        <v>134.8197310560416</v>
+        <v>188.2547349610497</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5580308522528</v>
+        <v>279.9930347572609</v>
       </c>
       <c r="O39" t="n">
-        <v>317.2247932514009</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="P39" t="n">
-        <v>370.6597971564092</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q39" t="n">
-        <v>356.1721822163863</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R39" t="n">
-        <v>356.1721822163863</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="S39" t="n">
-        <v>356.1721822163863</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="T39" t="n">
-        <v>262.5712233385052</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="U39" t="n">
-        <v>168.9702644606241</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V39" t="n">
-        <v>75.36930558274297</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W39" t="n">
-        <v>7.413195943128185</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X39" t="n">
-        <v>7.413195943128185</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.413195943128185</v>
+        <v>183.4578794006468</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="M40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="N40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="O40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="P40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="R40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="S40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="T40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="U40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="V40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.413195943128185</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.41319594312818</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C41" t="n">
-        <v>7.41319594312818</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D41" t="n">
-        <v>7.41319594312818</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K41" t="n">
-        <v>21.18357364821463</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L41" t="n">
-        <v>75.16870670940386</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M41" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N41" t="n">
-        <v>258.6453063018262</v>
+        <v>258.645306301826</v>
       </c>
       <c r="O41" t="n">
-        <v>337.6943058037294</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P41" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q41" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R41" t="n">
-        <v>288.2160725767714</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S41" t="n">
-        <v>288.2160725767714</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T41" t="n">
-        <v>194.6151136988903</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="U41" t="n">
+        <v>277.0588382785277</v>
+      </c>
+      <c r="V41" t="n">
+        <v>277.0588382785277</v>
+      </c>
+      <c r="W41" t="n">
+        <v>183.4578794006467</v>
+      </c>
+      <c r="X41" t="n">
         <v>101.0141548210092</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>101.0141548210092</v>
-      </c>
-      <c r="W41" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="X41" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>7.41319594312818</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="C42" t="n">
-        <v>7.41319594312818</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="D42" t="n">
-        <v>7.41319594312818</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="E42" t="n">
-        <v>7.41319594312818</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="F42" t="n">
-        <v>7.41319594312818</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="G42" t="n">
-        <v>7.41319594312818</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="H42" t="n">
-        <v>7.41319594312818</v>
+        <v>107.9000861362774</v>
       </c>
       <c r="I42" t="n">
-        <v>7.41319594312818</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J42" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K42" t="n">
-        <v>28.29609765201166</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L42" t="n">
-        <v>102.6982772648968</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M42" t="n">
-        <v>194.436577061108</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N42" t="n">
-        <v>279.9930347572609</v>
+        <v>286.174876857319</v>
       </c>
       <c r="O42" t="n">
-        <v>370.659797156409</v>
+        <v>317.2247932514004</v>
       </c>
       <c r="P42" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q42" t="n">
-        <v>356.1721822163861</v>
+        <v>356.1721822163858</v>
       </c>
       <c r="R42" t="n">
-        <v>270.7484666479218</v>
+        <v>270.7484666479214</v>
       </c>
       <c r="S42" t="n">
-        <v>177.1475077700407</v>
+        <v>270.7484666479214</v>
       </c>
       <c r="T42" t="n">
-        <v>83.54654889215963</v>
+        <v>270.7484666479214</v>
       </c>
       <c r="U42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="V42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="W42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="X42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.54654889215963</v>
+        <v>201.5010450141584</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="C43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="D43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="E43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="L43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="M43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="N43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="O43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="P43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="R43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="S43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="T43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="U43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="V43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="W43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="X43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.41319594312818</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="C44" t="n">
-        <v>7.41319594312818</v>
+        <v>277.0588382785277</v>
       </c>
       <c r="D44" t="n">
-        <v>7.41319594312818</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="E44" t="n">
-        <v>7.41319594312818</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F44" t="n">
-        <v>7.41319594312818</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K44" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L44" t="n">
-        <v>75.16870670940379</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M44" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N44" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O44" t="n">
-        <v>337.6943058037295</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P44" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="R44" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="S44" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="T44" t="n">
-        <v>277.058838278528</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="U44" t="n">
-        <v>183.457879400647</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="V44" t="n">
-        <v>101.0141548210092</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="W44" t="n">
-        <v>101.0141548210092</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="X44" t="n">
-        <v>101.0141548210092</v>
+        <v>370.6597971564087</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.41319594312818</v>
+        <v>370.6597971564087</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7.413195943128175</v>
+      </c>
+      <c r="K45" t="n">
+        <v>28.29609765201163</v>
+      </c>
+      <c r="L45" t="n">
+        <v>102.6982772648967</v>
+      </c>
+      <c r="M45" t="n">
+        <v>194.4365770611079</v>
+      </c>
+      <c r="N45" t="n">
+        <v>286.174876857319</v>
+      </c>
+      <c r="O45" t="n">
+        <v>317.2247932514004</v>
+      </c>
+      <c r="P45" t="n">
+        <v>370.6597971564087</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>370.6597971564087</v>
+      </c>
+      <c r="R45" t="n">
+        <v>288.2160725767712</v>
+      </c>
+      <c r="S45" t="n">
+        <v>288.2160725767712</v>
+      </c>
+      <c r="T45" t="n">
+        <v>288.2160725767712</v>
+      </c>
+      <c r="U45" t="n">
+        <v>194.6151136988902</v>
+      </c>
+      <c r="V45" t="n">
         <v>101.0141548210092</v>
       </c>
-      <c r="C45" t="n">
+      <c r="W45" t="n">
         <v>101.0141548210092</v>
-      </c>
-      <c r="D45" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="E45" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="F45" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="H45" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7.41319594312818</v>
-      </c>
-      <c r="K45" t="n">
-        <v>28.29609765201166</v>
-      </c>
-      <c r="L45" t="n">
-        <v>102.6982772648968</v>
-      </c>
-      <c r="M45" t="n">
-        <v>194.436577061108</v>
-      </c>
-      <c r="N45" t="n">
-        <v>286.1748768573193</v>
-      </c>
-      <c r="O45" t="n">
-        <v>317.2247932514007</v>
-      </c>
-      <c r="P45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="R45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="S45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="T45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="U45" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="V45" t="n">
-        <v>288.2160725767714</v>
-      </c>
-      <c r="W45" t="n">
-        <v>194.6151136988903</v>
       </c>
       <c r="X45" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="Y45" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128175</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="C46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="D46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="E46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="F46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="G46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="H46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="I46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="J46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="K46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="L46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="M46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="N46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="O46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="P46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="R46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="S46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="T46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="U46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="V46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="W46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="X46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128175</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.24567846819711</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.14653687633557</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>62.820513615165</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>33.14412614092828</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.14412614092826</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>12.20519387026837</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -22567,37 +22567,37 @@
         <v>326.4671399690905</v>
       </c>
       <c r="I2" t="n">
-        <v>161.5094162483257</v>
+        <v>161.5094162483256</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.24567846819694</v>
       </c>
       <c r="K2" t="n">
-        <v>58.52525650912534</v>
+        <v>58.52525650912509</v>
       </c>
       <c r="L2" t="n">
-        <v>35.33124892954447</v>
+        <v>35.33124892954416</v>
       </c>
       <c r="M2" t="n">
-        <v>7.323491285356852</v>
+        <v>7.323491285356511</v>
       </c>
       <c r="N2" t="n">
-        <v>2.781580526956702</v>
+        <v>2.781580526956333</v>
       </c>
       <c r="O2" t="n">
-        <v>16.09652847127788</v>
+        <v>16.09652847127751</v>
       </c>
       <c r="P2" t="n">
-        <v>48.58751046101409</v>
+        <v>48.58751046101381</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85.14653687633538</v>
       </c>
       <c r="R2" t="n">
-        <v>70.08466220369765</v>
+        <v>135.80108207668</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0771084079326</v>
+        <v>180.0771084079325</v>
       </c>
       <c r="T2" t="n">
         <v>217.5358797316327</v>
@@ -22646,13 +22646,13 @@
         <v>105.6721659462977</v>
       </c>
       <c r="I3" t="n">
-        <v>76.12468037326961</v>
+        <v>76.12468037326957</v>
       </c>
       <c r="J3" t="n">
-        <v>62.63255053171137</v>
+        <v>62.63255053171127</v>
       </c>
       <c r="K3" t="n">
-        <v>28.10473742565421</v>
+        <v>28.10473742565402</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,13 +22667,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.20510214699425</v>
+        <v>4.205102146994051</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23443014508379</v>
+        <v>53.23443014508365</v>
       </c>
       <c r="R3" t="n">
-        <v>103.4861490702066</v>
+        <v>103.4861490702065</v>
       </c>
       <c r="S3" t="n">
         <v>159.0603357001177</v>
@@ -22728,28 +22728,28 @@
         <v>138.3170164774018</v>
       </c>
       <c r="J4" t="n">
-        <v>86.71521999908973</v>
+        <v>86.71521999908967</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62.8205136151649</v>
       </c>
       <c r="L4" t="n">
-        <v>50.18075261468684</v>
+        <v>50.1807526146867</v>
       </c>
       <c r="M4" t="n">
-        <v>49.61737280767927</v>
+        <v>49.61737280767913</v>
       </c>
       <c r="N4" t="n">
-        <v>40.50068772810091</v>
+        <v>40.50068772810077</v>
       </c>
       <c r="O4" t="n">
-        <v>57.92721197712454</v>
+        <v>57.92721197712441</v>
       </c>
       <c r="P4" t="n">
-        <v>68.82125337898742</v>
+        <v>68.82125337898731</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.7975391803444</v>
+        <v>103.7975391803443</v>
       </c>
       <c r="R4" t="n">
         <v>151.6760741181036</v>
@@ -22807,28 +22807,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -22883,13 +22883,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,10 +22904,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -22965,25 +22965,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -23044,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23053,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23120,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23202,10 +23202,10 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>52.58459624356988</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L10" t="n">
         <v>49.14113189899257</v>
@@ -23214,16 +23214,16 @@
         <v>48.52123852856002</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.86903925848996</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R10" t="n">
         <v>151.3616578248528</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>325.2567584078702</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H11" t="n">
         <v>320.6353766150897</v>
@@ -23281,7 +23281,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J11" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R11" t="n">
         <v>100.0310828299331</v>
@@ -23311,22 +23311,22 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T11" t="n">
-        <v>122.378212846325</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U11" t="n">
-        <v>158.5335385714935</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893668</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>304.6186513222124</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>67.93032224523728</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428171</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884214</v>
       </c>
       <c r="H12" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I12" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J12" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.34273879062268</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R12" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>153.4011028494393</v>
@@ -23393,16 +23393,16 @@
         <v>196.197498299121</v>
       </c>
       <c r="U12" t="n">
-        <v>144.2573412586292</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V12" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>159.0300338718173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>113.1080359143752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23439,28 +23439,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J13" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K13" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L13" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M13" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N13" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O13" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P13" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R13" t="n">
         <v>140.1909870721275</v>
@@ -23518,7 +23518,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U14" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V14" t="n">
         <v>235.0873091810327</v>
@@ -23560,7 +23560,7 @@
         <v>256.5760194283108</v>
       </c>
       <c r="X14" t="n">
-        <v>288.1118133446278</v>
+        <v>288.1118133446279</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>65.82577823079758</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629878</v>
       </c>
       <c r="F15" t="n">
-        <v>55.35445418322004</v>
+        <v>52.40426310428171</v>
       </c>
       <c r="G15" t="n">
-        <v>43.69431484884205</v>
+        <v>43.69431484884214</v>
       </c>
       <c r="H15" t="n">
         <v>102.729632124056</v>
@@ -23621,10 +23621,10 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S15" t="n">
-        <v>60.73615356033707</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T15" t="n">
         <v>196.197498299121</v>
@@ -23676,10 +23676,10 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J16" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L16" t="n">
         <v>12.20519387026839</v>
@@ -23697,7 +23697,7 @@
         <v>37.92808757638606</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.06575411830539</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R16" t="n">
         <v>140.1909870721275</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>324.7681255138626</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>273.0637542868416</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23755,7 +23755,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J17" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>100.0310828299331</v>
       </c>
       <c r="S17" t="n">
-        <v>74.43607637216445</v>
+        <v>74.43607637216458</v>
       </c>
       <c r="T17" t="n">
         <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
-        <v>158.5335385714934</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V17" t="n">
-        <v>235.0873091810326</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23819,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629876</v>
       </c>
       <c r="F18" t="n">
-        <v>52.40426310428157</v>
+        <v>55.35445418322026</v>
       </c>
       <c r="G18" t="n">
-        <v>43.694314848842</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H18" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I18" t="n">
-        <v>55.50897386746507</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J18" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,16 +23855,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
-        <v>17.29292986956112</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.73615356033702</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U18" t="n">
         <v>225.8766285924705</v>
@@ -23913,28 +23913,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J19" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K19" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L19" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M19" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N19" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O19" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P19" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R19" t="n">
         <v>140.1909870721275</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.1145543296394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23992,7 +23992,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J20" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R20" t="n">
         <v>100.0310828299331</v>
@@ -24025,19 +24025,19 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U20" t="n">
-        <v>158.5335385714935</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>267.6216813835719</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>54.78011627553647</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>90.36853191218248</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042817</v>
       </c>
       <c r="G21" t="n">
-        <v>43.69431484884203</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H21" t="n">
-        <v>102.729632124056</v>
+        <v>10.06468283495379</v>
       </c>
       <c r="I21" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,16 +24092,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>36.79749135410614</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S21" t="n">
-        <v>60.73615356033704</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T21" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U21" t="n">
         <v>225.8766285924705</v>
@@ -24150,28 +24150,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J22" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K22" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L22" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M22" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N22" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O22" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P22" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R22" t="n">
         <v>140.1909870721275</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>283.1055925215684</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H23" t="n">
         <v>320.6353766150897</v>
@@ -24229,7 +24229,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J23" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0310828299331</v>
+        <v>54.50760378590319</v>
       </c>
       <c r="S23" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T23" t="n">
-        <v>116.2183845847339</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U23" t="n">
-        <v>152.3737103099023</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V23" t="n">
-        <v>228.9274809194415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>280.0639184891597</v>
+        <v>250.4161911667196</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>67.70840609917394</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>142.5938267395128</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.3592641379443</v>
       </c>
       <c r="H24" t="n">
-        <v>102.729632124056</v>
+        <v>3.90485457336257</v>
       </c>
       <c r="I24" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,31 +24329,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S24" t="n">
-        <v>54.57632529874593</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T24" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U24" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>225.7331828894473</v>
       </c>
       <c r="W24" t="n">
-        <v>152.8702056102262</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>106.857918226611</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24387,28 +24387,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J25" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K25" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L25" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M25" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N25" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O25" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P25" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R25" t="n">
         <v>140.1909870721275</v>
@@ -24445,10 +24445,10 @@
         <v>283.9090641127872</v>
       </c>
       <c r="C26" t="n">
-        <v>266.4481142203142</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>285.5059913924296</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H26" t="n">
         <v>320.6353766150897</v>
@@ -24466,7 +24466,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J26" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R26" t="n">
         <v>100.0310828299331</v>
@@ -24499,7 +24499,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1984878605957</v>
+        <v>182.0214376323426</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>73.88372143762234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>48.62028801394536</v>
@@ -24542,10 +24542,10 @@
         <v>102.729632124056</v>
       </c>
       <c r="I27" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J27" t="n">
-        <v>33.84730027516771</v>
+        <v>31.37191462129669</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.34273879062268</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R27" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T27" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U27" t="n">
-        <v>138.8317645258198</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24624,28 +24624,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J28" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K28" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L28" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M28" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N28" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O28" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P28" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R28" t="n">
         <v>140.1909870721275</v>
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>296.0958415427544</v>
       </c>
       <c r="D29" t="n">
-        <v>285.5059913924296</v>
+        <v>255.8582640699896</v>
       </c>
       <c r="E29" t="n">
         <v>283.1055925215684</v>
       </c>
       <c r="F29" t="n">
-        <v>308.051268191018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>314.6383968739324</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H29" t="n">
         <v>320.6353766150897</v>
@@ -24703,7 +24703,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J29" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R29" t="n">
-        <v>34.31466295695061</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S29" t="n">
         <v>167.1010256612668</v>
@@ -24736,7 +24736,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>67.70840609917394</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>73.88372143762234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>72.36708711735585</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H30" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I30" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J30" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.5694784127797</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S30" t="n">
-        <v>54.57632529874593</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T30" t="n">
-        <v>109.1526342324702</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U30" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>152.8702056102262</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24861,28 +24861,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J31" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K31" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L31" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M31" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N31" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O31" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P31" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R31" t="n">
         <v>140.1909870721275</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H32" t="n">
         <v>320.6353766150897</v>
@@ -24940,7 +24940,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J32" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R32" t="n">
-        <v>30.85403260167973</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S32" t="n">
         <v>68.27624811057336</v>
@@ -24973,10 +24973,10 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V32" t="n">
-        <v>228.9274809194415</v>
+        <v>258.5752082418817</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.4131611053602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>46.24443484269048</v>
       </c>
       <c r="G33" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H33" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I33" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J33" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R33" t="n">
-        <v>84.5694784127797</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S33" t="n">
         <v>153.4011028494393</v>
@@ -25052,19 +25052,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U33" t="n">
-        <v>127.0518510417771</v>
+        <v>138.8317645258198</v>
       </c>
       <c r="V33" t="n">
         <v>133.9758095987319</v>
       </c>
       <c r="W33" t="n">
-        <v>178.9928578848916</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>106.857918226611</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25098,28 +25098,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J34" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K34" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L34" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M34" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N34" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O34" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P34" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R34" t="n">
         <v>140.1909870721275</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>314.2110964526091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H35" t="n">
         <v>320.6353766150897</v>
@@ -25177,7 +25177,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J35" t="n">
-        <v>24.91528667358034</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R35" t="n">
-        <v>18.41179549609183</v>
+        <v>7.366133540830845</v>
       </c>
       <c r="S35" t="n">
-        <v>74.43607637216448</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T35" t="n">
-        <v>215.0431621354273</v>
+        <v>158.3391614751665</v>
       </c>
       <c r="U35" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669513</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>54.78011627553647</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25253,10 +25253,10 @@
         <v>102.729632124056</v>
       </c>
       <c r="I36" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J36" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R36" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>153.4011028494393</v>
+        <v>60.7361535603371</v>
       </c>
       <c r="T36" t="n">
         <v>103.5325490100187</v>
       </c>
       <c r="U36" t="n">
-        <v>158.6000800492519</v>
+        <v>136.1618703823067</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>159.0300338718173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25335,28 +25335,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J37" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K37" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L37" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M37" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N37" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O37" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P37" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R37" t="n">
         <v>140.1909870721275</v>
@@ -25393,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819053</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E38" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>314.2110964526091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8438870907845</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H38" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I38" t="n">
-        <v>139.5561335235496</v>
+        <v>57.9368461897085</v>
       </c>
       <c r="J38" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R38" t="n">
         <v>100.0310828299331</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>99.67307850596529</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25487,13 +25487,13 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H39" t="n">
-        <v>102.729632124056</v>
+        <v>10.06468283495374</v>
       </c>
       <c r="I39" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J39" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R39" t="n">
-        <v>84.5694784127797</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S39" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T39" t="n">
-        <v>103.5325490100186</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U39" t="n">
         <v>133.2116793033682</v>
       </c>
       <c r="V39" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>184.418434617701</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25572,28 +25572,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J40" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K40" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L40" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M40" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N40" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O40" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P40" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R40" t="n">
         <v>140.1909870721275</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25651,7 +25651,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J41" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R41" t="n">
-        <v>18.41179549609177</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S41" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T41" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U41" t="n">
-        <v>158.5335385714935</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X41" t="n">
-        <v>277.0661513893668</v>
+        <v>288.1118133446279</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>97.33647956877459</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884213</v>
       </c>
       <c r="H42" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I42" t="n">
-        <v>55.50897386746507</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.73615356033707</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T42" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8766285924705</v>
+        <v>157.3216811750451</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25809,28 +25809,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J43" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M43" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N43" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O43" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P43" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.06575411830538</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R43" t="n">
         <v>140.1909870721275</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>273.0637542868418</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H44" t="n">
         <v>320.6353766150897</v>
@@ -25888,7 +25888,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J44" t="n">
-        <v>24.91528667358034</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.65357118422321</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R44" t="n">
         <v>100.0310828299331</v>
@@ -25918,13 +25918,13 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T44" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U44" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V44" t="n">
-        <v>246.1329711362936</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>52.40426310428163</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.3592641379443</v>
@@ -25964,10 +25964,10 @@
         <v>102.729632124056</v>
       </c>
       <c r="I45" t="n">
-        <v>65.63472101604999</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J45" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,10 +25988,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.34273879062268</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
-        <v>84.5694784127797</v>
+        <v>2.950191078938545</v>
       </c>
       <c r="S45" t="n">
         <v>153.4011028494393</v>
@@ -26000,19 +26000,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V45" t="n">
-        <v>151.181299815584</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W45" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>113.1080359143752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="46">
@@ -26046,28 +26046,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J46" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K46" t="n">
-        <v>33.14412614092826</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L46" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M46" t="n">
         <v>9.577470677924651</v>
       </c>
       <c r="N46" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O46" t="n">
-        <v>21.82326264618298</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P46" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R46" t="n">
         <v>140.1909870721275</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>265432.300794512</v>
+        <v>231091.8378446237</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>255529.0377272689</v>
+        <v>233574.5941737972</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>247433.748334975</v>
+        <v>233574.5941737972</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344398.0652397888</v>
+        <v>335249.3307048348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>336011.3944352375</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>339465.8446120751</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341296.1655284956</v>
+        <v>337079.6516212554</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341296.1655284956</v>
+        <v>337079.6516212555</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350581.2384923494</v>
+        <v>337079.6516212555</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>337079.6516212555</v>
+        <v>337079.6516212554</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>339465.844612075</v>
+        <v>335249.3307048348</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>342159.7893749545</v>
+        <v>335249.3307048348</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109196.3974135582</v>
+        <v>99039.3590762673</v>
       </c>
       <c r="C2" t="n">
-        <v>106596.9653146462</v>
+        <v>100103.397503056</v>
       </c>
       <c r="D2" t="n">
-        <v>104202.5839450944</v>
+        <v>100103.397503056</v>
       </c>
       <c r="E2" t="n">
         <v>143678.2845877863</v>
       </c>
       <c r="F2" t="n">
-        <v>146384.2483234769</v>
+        <v>143678.2845877862</v>
       </c>
       <c r="G2" t="n">
-        <v>143903.6837193138</v>
+        <v>143678.2845877863</v>
       </c>
       <c r="H2" t="n">
-        <v>144925.4225040123</v>
+        <v>143678.2845877863</v>
       </c>
       <c r="I2" t="n">
-        <v>145709.8457539068</v>
+        <v>144462.7078376808</v>
       </c>
       <c r="J2" t="n">
-        <v>145709.8457539068</v>
+        <v>144462.7078376808</v>
       </c>
       <c r="K2" t="n">
-        <v>148456.1349403987</v>
+        <v>144462.7078376808</v>
       </c>
       <c r="L2" t="n">
         <v>144462.7078376808</v>
       </c>
       <c r="M2" t="n">
+        <v>143678.2845877863</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143678.2845877863</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143678.2845877863</v>
+      </c>
+      <c r="P2" t="n">
         <v>143678.2845877862</v>
-      </c>
-      <c r="N2" t="n">
-        <v>144925.4225040123</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145722.2230676809</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143678.2845877863</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304447.2252514305</v>
+        <v>304447.2252514311</v>
       </c>
       <c r="C3" t="n">
-        <v>3531.094709557997</v>
+        <v>3531.094709557509</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138352.6270929456</v>
+        <v>138352.6270929455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1638.027691150571</v>
+        <v>1638.027691150598</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21557.42218053989</v>
+        <v>21557.42218053985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10640.70682954299</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6802.785326427866</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4294.385796421282</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.14558386063676</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="F4" t="n">
-        <v>2901.964735536506</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="G4" t="n">
-        <v>303.2780073656373</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="H4" t="n">
-        <v>1373.671019906904</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="I4" t="n">
-        <v>1375.957734819069</v>
+        <v>69.43229877280183</v>
       </c>
       <c r="J4" t="n">
-        <v>1375.957734819069</v>
+        <v>69.43229877280183</v>
       </c>
       <c r="K4" t="n">
-        <v>4253.02259685824</v>
+        <v>69.43229877280183</v>
       </c>
       <c r="L4" t="n">
-        <v>69.43229877280186</v>
+        <v>69.43229877280183</v>
       </c>
       <c r="M4" t="n">
-        <v>67.14558386063678</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="N4" t="n">
-        <v>1373.671019906904</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="O4" t="n">
-        <v>2208.4144675597</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="P4" t="n">
-        <v>67.14558386063675</v>
+        <v>67.14558386063669</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40515.16742642657</v>
+        <v>40515.16742642658</v>
       </c>
       <c r="C5" t="n">
         <v>40599.70256325733</v>
@@ -26478,16 +26478,16 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="F5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="G5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="H5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="I5" t="n">
         <v>15984.03722414097</v>
@@ -26502,16 +26502,16 @@
         <v>15984.03722414097</v>
       </c>
       <c r="M5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="N5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="O5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="P5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261732.9178921843</v>
+        <v>-247504.0220306498</v>
       </c>
       <c r="C6" t="n">
-        <v>40213.38443616001</v>
+        <v>54396.67865083308</v>
       </c>
       <c r="D6" t="n">
-        <v>43744.47914571802</v>
+        <v>57927.77336039058</v>
       </c>
       <c r="E6" t="n">
-        <v>-24035.22892585438</v>
+        <v>-11719.42987195588</v>
       </c>
       <c r="F6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="G6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="H6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="I6" t="n">
-        <v>113124.3429407085</v>
+        <v>125406.5238553256</v>
       </c>
       <c r="J6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="K6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="L6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="M6" t="n">
-        <v>92759.97598655126</v>
+        <v>105075.7750404497</v>
       </c>
       <c r="N6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="O6" t="n">
-        <v>114317.3981670913</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="P6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278243</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
         <v>319.8212184980426</v>
@@ -26746,40 +26746,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="F3" t="n">
         <v>457.5913187641655</v>
       </c>
       <c r="G3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="H3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="I3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="J3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="K3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="L3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="M3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="N3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="O3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="P3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641655</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="F4" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="G4" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="H4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="I4" t="n">
         <v>98.8247775506934</v>
@@ -26822,16 +26822,16 @@
         <v>98.8247775506934</v>
       </c>
       <c r="M4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N4" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O4" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="P4" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278243</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
-        <v>3.87775857021838</v>
+        <v>3.877758570217844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.159828261591116</v>
+        <v>6.159828261591215</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.50512102751117</v>
+        <v>86.505121027511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.270124462021403</v>
+        <v>1.270124462021405</v>
       </c>
       <c r="H2" t="n">
-        <v>13.0076621466767</v>
+        <v>13.00766214667672</v>
       </c>
       <c r="I2" t="n">
-        <v>48.96647332208019</v>
+        <v>48.96647332208028</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8002260584892</v>
+        <v>107.8002260584893</v>
       </c>
       <c r="K2" t="n">
-        <v>161.5645945358552</v>
+        <v>161.5645945358555</v>
       </c>
       <c r="L2" t="n">
-        <v>200.4351660404428</v>
+        <v>200.4351660404431</v>
       </c>
       <c r="M2" t="n">
-        <v>223.0227419419159</v>
+        <v>223.0227419419162</v>
       </c>
       <c r="N2" t="n">
-        <v>226.6314830696342</v>
+        <v>226.6314830696346</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0016829504088</v>
+        <v>214.0016829504092</v>
       </c>
       <c r="P2" t="n">
-        <v>182.6454852942555</v>
+        <v>182.6454852942557</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.1591529981139</v>
+        <v>137.1591529981141</v>
       </c>
       <c r="R2" t="n">
-        <v>79.78445573745203</v>
+        <v>79.78445573745216</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94296117831275</v>
+        <v>28.9429611783128</v>
       </c>
       <c r="T2" t="n">
-        <v>5.559969832498695</v>
+        <v>5.559969832498704</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1016099569617122</v>
+        <v>0.1016099569617124</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6795764987126787</v>
+        <v>0.6795764987126798</v>
       </c>
       <c r="H3" t="n">
-        <v>6.563278290198766</v>
+        <v>6.563278290198777</v>
       </c>
       <c r="I3" t="n">
-        <v>23.39769962673039</v>
+        <v>23.39769962673043</v>
       </c>
       <c r="J3" t="n">
-        <v>64.20507613495532</v>
+        <v>64.20507613495542</v>
       </c>
       <c r="K3" t="n">
-        <v>109.7367015487048</v>
+        <v>109.736701548705</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.769305267336</v>
+        <v>129.7693052673362</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.74734394093772</v>
+        <v>86.74734394093787</v>
       </c>
       <c r="R3" t="n">
-        <v>42.19335489375738</v>
+        <v>42.19335489375745</v>
       </c>
       <c r="S3" t="n">
-        <v>12.62283540372014</v>
+        <v>12.62283540372016</v>
       </c>
       <c r="T3" t="n">
-        <v>2.739170185600664</v>
+        <v>2.739170185600669</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04470898017846572</v>
+        <v>0.04470898017846579</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5697341080665683</v>
+        <v>0.5697341080665692</v>
       </c>
       <c r="H4" t="n">
-        <v>5.065454160810038</v>
+        <v>5.065454160810046</v>
       </c>
       <c r="I4" t="n">
-        <v>17.13345844985644</v>
+        <v>17.13345844985647</v>
       </c>
       <c r="J4" t="n">
-        <v>40.28020144030638</v>
+        <v>40.28020144030644</v>
       </c>
       <c r="K4" t="n">
-        <v>66.19274455537038</v>
+        <v>66.19274455537048</v>
       </c>
       <c r="L4" t="n">
-        <v>84.70392366655145</v>
+        <v>84.70392366655159</v>
       </c>
       <c r="M4" t="n">
-        <v>89.30841113992578</v>
+        <v>89.30841113992592</v>
       </c>
       <c r="N4" t="n">
-        <v>87.18485673713228</v>
+        <v>87.18485673713242</v>
       </c>
       <c r="O4" t="n">
-        <v>80.52932647471825</v>
+        <v>80.52932647471837</v>
       </c>
       <c r="P4" t="n">
-        <v>68.90675067016019</v>
+        <v>68.90675067016031</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.70746244910146</v>
+        <v>47.70746244910154</v>
       </c>
       <c r="R4" t="n">
-        <v>25.61731725906587</v>
+        <v>25.61731725906592</v>
       </c>
       <c r="S4" t="n">
-        <v>9.928911683305556</v>
+        <v>9.928911683305572</v>
       </c>
       <c r="T4" t="n">
-        <v>2.434318461738973</v>
+        <v>2.434318461738977</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03107640589454012</v>
+        <v>0.03107640589454018</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31311,13 +31311,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31384,22 +31384,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,37 +31436,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S8" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T8" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31770,28 +31770,28 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M11" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O11" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P11" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R11" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S11" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T11" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U11" t="n">
         <v>0.1471650472407365</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H12" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I12" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J12" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>174.5829003017954</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M12" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N12" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O12" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P12" t="n">
-        <v>187.9491588335306</v>
+        <v>148.8239625747597</v>
       </c>
       <c r="Q12" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R12" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S12" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T12" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U12" t="n">
         <v>0.06475348850436308</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H13" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I13" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J13" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K13" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L13" t="n">
         <v>122.6794824109699</v>
@@ -31937,22 +31937,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P13" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R13" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S13" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T13" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32007,10 +32007,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O14" t="n">
         <v>309.9456856660333</v>
@@ -32080,22 +32080,22 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K15" t="n">
-        <v>158.9352790843423</v>
+        <v>152.6909941347884</v>
       </c>
       <c r="L15" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M15" t="n">
-        <v>174.5799468423665</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N15" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O15" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P15" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>125.6390352953988</v>
@@ -32244,28 +32244,28 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M17" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O17" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P17" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R17" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S17" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T17" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U17" t="n">
         <v>0.1471650472407365</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H18" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I18" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J18" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K18" t="n">
-        <v>158.9352790843423</v>
+        <v>152.6909941347884</v>
       </c>
       <c r="L18" t="n">
-        <v>153.4890601918122</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N18" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O18" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R18" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S18" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T18" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U18" t="n">
         <v>0.06475348850436308</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H19" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I19" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J19" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K19" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L19" t="n">
         <v>122.6794824109699</v>
@@ -32411,22 +32411,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P19" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R19" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S19" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T19" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32481,28 +32481,28 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O20" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P20" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R20" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S20" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T20" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U20" t="n">
         <v>0.1471650472407365</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H21" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I21" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J21" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K21" t="n">
         <v>158.9352790843423</v>
@@ -32560,28 +32560,28 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>174.5799468423665</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N21" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O21" t="n">
-        <v>234.1788327264122</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P21" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R21" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S21" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T21" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U21" t="n">
         <v>0.06475348850436308</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H22" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I22" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J22" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K22" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L22" t="n">
         <v>122.6794824109699</v>
@@ -32648,22 +32648,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P22" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R22" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S22" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T22" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32724,22 +32724,22 @@
         <v>328.2378411472843</v>
       </c>
       <c r="O23" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P23" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R23" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S23" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T23" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U23" t="n">
         <v>0.1471650472407365</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H24" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I24" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J24" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K24" t="n">
         <v>158.9352790843423</v>
@@ -32800,25 +32800,25 @@
         <v>240.9588114727117</v>
       </c>
       <c r="N24" t="n">
-        <v>182.0182278384916</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O24" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P24" t="n">
-        <v>187.9491588335306</v>
+        <v>139.8008970379955</v>
       </c>
       <c r="Q24" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R24" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S24" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T24" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U24" t="n">
         <v>0.06475348850436308</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H25" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I25" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J25" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K25" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L25" t="n">
         <v>122.6794824109699</v>
@@ -32885,22 +32885,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P25" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R25" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S25" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T25" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32961,22 +32961,22 @@
         <v>328.2378411472843</v>
       </c>
       <c r="O26" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P26" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R26" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S26" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T26" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U26" t="n">
         <v>0.1471650472407365</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H27" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I27" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J27" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K27" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M27" t="n">
-        <v>192.8105496771765</v>
+        <v>240.9588114727117</v>
       </c>
       <c r="N27" t="n">
         <v>230.1664896340267</v>
       </c>
       <c r="O27" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P27" t="n">
-        <v>187.9491588335306</v>
+        <v>160.8947371479788</v>
       </c>
       <c r="Q27" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R27" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S27" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T27" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U27" t="n">
         <v>0.06475348850436308</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H28" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I28" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J28" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K28" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L28" t="n">
         <v>122.6794824109699</v>
@@ -33122,22 +33122,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P28" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R28" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S28" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T28" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33198,22 +33198,22 @@
         <v>328.2378411472843</v>
       </c>
       <c r="O29" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P29" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q29" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R29" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S29" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T29" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U29" t="n">
         <v>0.1471650472407365</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H30" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I30" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J30" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K30" t="n">
         <v>158.9352790843423</v>
@@ -33277,22 +33277,22 @@
         <v>230.1664896340267</v>
       </c>
       <c r="O30" t="n">
-        <v>186.030570930877</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P30" t="n">
-        <v>187.9491588335306</v>
+        <v>139.8008970379955</v>
       </c>
       <c r="Q30" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R30" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S30" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T30" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U30" t="n">
         <v>0.06475348850436308</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H31" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I31" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J31" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K31" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L31" t="n">
         <v>122.6794824109699</v>
@@ -33359,22 +33359,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P31" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R31" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S31" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T31" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33435,22 +33435,22 @@
         <v>328.2378411472843</v>
       </c>
       <c r="O32" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P32" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q32" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R32" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S32" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T32" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U32" t="n">
         <v>0.1471650472407365</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H33" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I33" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J33" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L33" t="n">
-        <v>186.6536748750144</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M33" t="n">
         <v>240.9588114727117</v>
       </c>
       <c r="N33" t="n">
-        <v>230.1664896340267</v>
+        <v>182.0182278384917</v>
       </c>
       <c r="O33" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P33" t="n">
         <v>187.9491588335306</v>
@@ -33523,13 +33523,13 @@
         <v>125.6390352953988</v>
       </c>
       <c r="R33" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S33" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T33" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U33" t="n">
         <v>0.06475348850436308</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H34" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I34" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J34" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K34" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L34" t="n">
         <v>122.6794824109699</v>
@@ -33596,22 +33596,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P34" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R34" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S34" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T34" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33672,22 +33672,22 @@
         <v>322.0780128856932</v>
       </c>
       <c r="O35" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P35" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q35" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R35" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S35" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T35" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U35" t="n">
         <v>0.1471650472407365</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H36" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I36" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J36" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K36" t="n">
         <v>158.9352790843423</v>
@@ -33745,13 +33745,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M36" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N36" t="n">
-        <v>163.7876250036815</v>
+        <v>163.7876250036814</v>
       </c>
       <c r="O36" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P36" t="n">
         <v>187.9491588335306</v>
@@ -33760,13 +33760,13 @@
         <v>125.6390352953988</v>
       </c>
       <c r="R36" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S36" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T36" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U36" t="n">
         <v>0.06475348850436308</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H37" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I37" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J37" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K37" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L37" t="n">
         <v>122.6794824109699</v>
@@ -33833,22 +33833,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P37" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R37" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S37" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T37" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33909,22 +33909,22 @@
         <v>322.0780128856932</v>
       </c>
       <c r="O38" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P38" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q38" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R38" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S38" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T38" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U38" t="n">
         <v>0.1471650472407365</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H39" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I39" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J39" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K39" t="n">
         <v>158.9352790843423</v>
@@ -33982,28 +33982,28 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M39" t="n">
-        <v>174.5799468423666</v>
+        <v>228.5546982615668</v>
       </c>
       <c r="N39" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O39" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P39" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R39" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S39" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T39" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U39" t="n">
         <v>0.06475348850436308</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H40" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I40" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J40" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K40" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L40" t="n">
         <v>122.6794824109699</v>
@@ -34070,22 +34070,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P40" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R40" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S40" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T40" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34140,28 +34140,28 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M41" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O41" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P41" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q41" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R41" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S41" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T41" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U41" t="n">
         <v>0.1471650472407365</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H42" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I42" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J42" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K42" t="n">
         <v>158.9352790843423</v>
@@ -34219,28 +34219,28 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M42" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N42" t="n">
-        <v>217.7623764228817</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O42" t="n">
-        <v>234.1788327264122</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q42" t="n">
         <v>125.6390352953988</v>
       </c>
       <c r="R42" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S42" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T42" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U42" t="n">
         <v>0.06475348850436308</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H43" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I43" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J43" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K43" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L43" t="n">
         <v>122.6794824109699</v>
@@ -34307,22 +34307,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P43" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R43" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S43" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T43" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,28 +34377,28 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M44" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N44" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O44" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P44" t="n">
         <v>264.5314718690873</v>
       </c>
       <c r="Q44" t="n">
-        <v>198.6521186902263</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R44" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S44" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T44" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U44" t="n">
         <v>0.1471650472407365</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H45" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I45" t="n">
         <v>33.88765898395</v>
       </c>
       <c r="J45" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K45" t="n">
         <v>158.9352790843423</v>
@@ -34456,10 +34456,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M45" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N45" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O45" t="n">
         <v>173.959796357658</v>
@@ -34471,13 +34471,13 @@
         <v>125.6390352953988</v>
       </c>
       <c r="R45" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S45" t="n">
         <v>18.28206825439849</v>
       </c>
       <c r="T45" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U45" t="n">
         <v>0.06475348850436308</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H46" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I46" t="n">
-        <v>24.81495217166984</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J46" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K46" t="n">
-        <v>95.86913202960712</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L46" t="n">
         <v>122.6794824109699</v>
@@ -34544,22 +34544,22 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P46" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R46" t="n">
         <v>37.102404305042</v>
       </c>
       <c r="S46" t="n">
-        <v>14.38036980444107</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T46" t="n">
         <v>3.52570360359275</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L11" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M11" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="N11" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="O11" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P11" t="n">
         <v>33.29847611381774</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>36.02852052192124</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M12" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="N12" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="O12" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P12" t="n">
-        <v>53.97475141920035</v>
+        <v>14.84955516042941</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M14" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="N14" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="O14" t="n">
         <v>79.84747424434661</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.09384010998329</v>
+        <v>14.84955516042938</v>
       </c>
       <c r="L15" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M15" t="n">
-        <v>32.44591292034819</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="N15" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910217</v>
       </c>
       <c r="O15" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P15" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L17" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M17" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N17" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O17" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P17" t="n">
         <v>33.29847611381774</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.09384010998332</v>
+        <v>14.84955516042943</v>
       </c>
       <c r="L18" t="n">
-        <v>14.93468041193801</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N18" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O18" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920035</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L20" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M20" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N20" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O20" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P20" t="n">
         <v>33.29847611381774</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L21" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>32.44591292034816</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N21" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O21" t="n">
-        <v>91.58258828196773</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P21" t="n">
-        <v>53.97475141920035</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L23" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M23" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N23" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O23" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P23" t="n">
         <v>33.29847611381774</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L24" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M24" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="N24" t="n">
-        <v>50.67651575515823</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="O24" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P24" t="n">
-        <v>53.97475141920035</v>
+        <v>5.826489623665269</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L26" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M26" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N26" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O26" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P26" t="n">
         <v>33.29847611381774</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.09384010998332</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M27" t="n">
-        <v>50.67651575515822</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="N27" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O27" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P27" t="n">
-        <v>53.97475141920035</v>
+        <v>26.92032973364858</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L29" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M29" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N29" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O29" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P29" t="n">
         <v>33.29847611381774</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L30" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M30" t="n">
         <v>98.8247775506934</v>
@@ -36925,10 +36925,10 @@
         <v>98.8247775506934</v>
       </c>
       <c r="O30" t="n">
-        <v>43.43432648643257</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P30" t="n">
-        <v>53.97475141920035</v>
+        <v>5.826489623665269</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L32" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M32" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N32" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O32" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P32" t="n">
         <v>33.29847611381774</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L33" t="n">
-        <v>48.09929509514019</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="N33" t="n">
-        <v>98.8247775506934</v>
+        <v>50.67651575515835</v>
       </c>
       <c r="O33" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P33" t="n">
-        <v>53.97475141920035</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L35" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M35" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N35" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O35" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P35" t="n">
         <v>33.29847611381774</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L36" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M36" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N36" t="n">
-        <v>32.44591292034817</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="O36" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P36" t="n">
-        <v>53.97475141920035</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L38" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M38" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N38" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O38" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P38" t="n">
         <v>33.29847611381774</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L39" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M39" t="n">
-        <v>32.44591292034827</v>
+        <v>86.42066433954845</v>
       </c>
       <c r="N39" t="n">
-        <v>92.66494928910231</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O39" t="n">
-        <v>91.58258828196773</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P39" t="n">
-        <v>53.97475141920035</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L41" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M41" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N41" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O41" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P41" t="n">
         <v>33.29847611381774</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L42" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M42" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N42" t="n">
-        <v>86.4206643395484</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O42" t="n">
-        <v>91.58258828196773</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L44" t="n">
-        <v>54.53043743554468</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N44" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O44" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P44" t="n">
         <v>33.29847611381774</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L45" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M45" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="N45" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910218</v>
       </c>
       <c r="O45" t="n">
         <v>31.36355191321351</v>
       </c>
       <c r="P45" t="n">
-        <v>53.97475141920035</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
